--- a/InputDataUiDemo.xlsx
+++ b/InputDataUiDemo.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -405,7 +405,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,7 +430,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>28</v>
